--- a/main/static/sample_experiment_description.xlsx
+++ b/main/static/sample_experiment_description.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Line Name</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>LB</t>
-  </si>
-  <si>
-    <t>8h, 24h</t>
-  </si>
-  <si>
-    <t>Targeted Proteomics Time(s)</t>
   </si>
   <si>
     <t>Part ID</t>
@@ -457,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,11 +463,9 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -489,16 +481,13 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -508,9 +497,6 @@
       </c>
       <c r="E2">
         <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
